--- a/biology/Médecine/Syndicat_des_manageurs_publics_de_santé/Syndicat_des_manageurs_publics_de_santé.xlsx
+++ b/biology/Médecine/Syndicat_des_manageurs_publics_de_santé/Syndicat_des_manageurs_publics_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndicat_des_manageurs_publics_de_sant%C3%A9</t>
+          <t>Syndicat_des_manageurs_publics_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndicat des manageurs publics de santé (SMPS) est un syndicat représentant les directeurs, les ingénieurs et les cadres de la fonction publique hospitalière française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndicat_des_manageurs_publics_de_sant%C3%A9</t>
+          <t>Syndicat_des_manageurs_publics_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le SMPS est un syndicat représentatif de la fonction publique qui siège au conseil commun de la fonction publique[1] et au conseil supérieur de la fonction publique hospitalière [2].
-Depuis février 2014, il est affilié par convention à l'UNSA Santé Sociaux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SMPS est un syndicat représentatif de la fonction publique qui siège au conseil commun de la fonction publique et au conseil supérieur de la fonction publique hospitalière .
+Depuis février 2014, il est affilié par convention à l'UNSA Santé Sociaux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndicat_des_manageurs_publics_de_sant%C3%A9</t>
+          <t>Syndicat_des_manageurs_publics_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Syndicat historique des directeurs d'hôpital, le SMPS a accompagné l'essor de ce corps vers la haute fonction publique[4] depuis sa création en 1947 sous le nom de Syndicat National des Cadres Hospitaliers (SNCH)[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syndicat historique des directeurs d'hôpital, le SMPS a accompagné l'essor de ce corps vers la haute fonction publique depuis sa création en 1947 sous le nom de Syndicat National des Cadres Hospitaliers (SNCH). 
 Sa représentation s'est progressivement élargie aux trois corps de direction de la fonction publique hospitalière (Directeurs d'hôpital, Directeurs d'établissements sanitaire, social et médico-social et Directeurs des soins) ainsi qu'aux corps d'encadrement et d'ingénierie (cadres soignants, administratifs et techniques).
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndicat_des_manageurs_publics_de_sant%C3%A9</t>
+          <t>Syndicat_des_manageurs_publics_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son organisation repose un bureau national et un président élus par les adhérents du syndicat. Depuis le 2 octobre 2014, le président du SMPS est Jérémie Sécher, Directeur de l'Hôpital d'Antibes-Juan-les-Pins[6] et réélu en septembre 2015 à la tête du syndicat. Les élus de ce syndicat ont la spécificité à la fois d'assurer des missions syndicales de représentation  dans les négociations auprès des pouvoirs publics et dans les instances représentatives de la fonction publique et d'être des professionnels en exercice dans des établissements de santé.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son organisation repose un bureau national et un président élus par les adhérents du syndicat. Depuis le 2 octobre 2014, le président du SMPS est Jérémie Sécher, Directeur de l'Hôpital d'Antibes-Juan-les-Pins et réélu en septembre 2015 à la tête du syndicat. Les élus de ce syndicat ont la spécificité à la fois d'assurer des missions syndicales de représentation  dans les négociations auprès des pouvoirs publics et dans les instances représentatives de la fonction publique et d'être des professionnels en exercice dans des établissements de santé.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndicat_des_manageurs_publics_de_sant%C3%A9</t>
+          <t>Syndicat_des_manageurs_publics_de_santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le magazine d'information en santé Hospimedia évoque les objectifs et les missions du SMPS : « Qualité des soins, responsabilisation et promotion de la fonction de cadre dans le service public, tels sont ses objectifs. Les missions envers ses adhérents sont nombreuses. Le syndicat veille à leurs intérêts, leur apporte des conseils, assure leur défense. Le SMPS représente ses adhérents dans les comités techniques d'établissements, les commissions administratives paritaires et les conseils de discipline. Une cellule juridique hospitalière leur est également ouverte »[7].
-Le SMPS porte l’idée que toute réforme du système de santé et médico-social doit répondre à trois  principes : autonomie, souplesse[8] et subsidiarité [9]. Les acteurs de terrain, en particulier les directeurs et cadres, sont un moteur essentiel du système et de sa modernisation. Ce sont eux qui connaissent les territoires de santé, les établissements et leurs problématiques. Une réforme réussie ne peut se faire qu’avec leur concours actif dans sa mise en œuvre et qu’avec leurs retours d’expérience, en permettant une adaptation aux contextes locaux.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine d'information en santé Hospimedia évoque les objectifs et les missions du SMPS : « Qualité des soins, responsabilisation et promotion de la fonction de cadre dans le service public, tels sont ses objectifs. Les missions envers ses adhérents sont nombreuses. Le syndicat veille à leurs intérêts, leur apporte des conseils, assure leur défense. Le SMPS représente ses adhérents dans les comités techniques d'établissements, les commissions administratives paritaires et les conseils de discipline. Une cellule juridique hospitalière leur est également ouverte ».
+Le SMPS porte l’idée que toute réforme du système de santé et médico-social doit répondre à trois  principes : autonomie, souplesse et subsidiarité . Les acteurs de terrain, en particulier les directeurs et cadres, sont un moteur essentiel du système et de sa modernisation. Ce sont eux qui connaissent les territoires de santé, les établissements et leurs problématiques. Une réforme réussie ne peut se faire qu’avec leur concours actif dans sa mise en œuvre et qu’avec leurs retours d’expérience, en permettant une adaptation aux contextes locaux.
 </t>
         </is>
       </c>
